--- a/biology/Botanique/Anacamptis_coriophora_subsp._fragrans/Anacamptis_coriophora_subsp._fragrans.xlsx
+++ b/biology/Botanique/Anacamptis_coriophora_subsp._fragrans/Anacamptis_coriophora_subsp._fragrans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anacamptis coriophora subsp. fragrans, (anciennement Orchis coriophora subsp. fragans (Poll.) Sudre), l'Orchis parfumé ou Orchis à odeur de vanille est une sous-espèce d'orchidée terrestre d'Europe.
 C'est une sous-espèce de l'Orchis punaise (Anacamptis coriophora).
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses feuilles lancéolées sont étroites et l'inflorescence en épi, culmine entre 20 et 40 cm.
-La floraison a lieu de mai à juillet[1].
+La floraison a lieu de mai à juillet.
 Cette orchidée se caractérise par son agréable odeur de vanille.
 </t>
         </is>
@@ -545,11 +559,48 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se trouve sur des pelouses ou des prairies à sols marécageux au printemps, secs en été.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anacamptis_coriophora_subsp._fragrans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anacamptis_coriophora_subsp._fragrans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : rose
 Période de floraison : mai-juillet
 Inflorescence : épi simple
@@ -566,31 +617,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Anacamptis_coriophora_subsp._fragrans</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anacamptis_coriophora_subsp._fragrans</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Autres espèces du genre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les dernières classifications tendent à disperser quelques espèces du genre Orchis vers le genre Anacamptis, qui de fait, n'est plus monospécifique. Outre A. coriophora, (orchis punaise), on trouve actuellement:
 Anacamptis champagneuxii, orchis de Champagneux
